--- a/tabular/efiv-side-data.xlsx
+++ b/tabular/efiv-side-data.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/eve/Filoviridae-EVE/tabular/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B521514-00F3-B54C-BC91-A965F70FC9AF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17420" yWindow="600" windowWidth="25420" windowHeight="24820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3380" yWindow="460" windowWidth="25420" windowHeight="17540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="filo.txt" sheetId="1" r:id="rId1"/>
     <sheet name="multiple genes" sheetId="2" r:id="rId2"/>
     <sheet name="locus table" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="502">
   <si>
     <t>Castor_canadensis</t>
   </si>
@@ -981,12 +987,6 @@
   </si>
   <si>
     <t>gi|730050000|ref|NW_011048078.1|</t>
-  </si>
-  <si>
-    <t>LOEQ01027844.1</t>
-  </si>
-  <si>
-    <t>nucleoprotein[Lloviu-cuevavirus(-)]</t>
   </si>
   <si>
     <t>gi|671664246|ref|NW_008346121.1|</t>
@@ -1538,7 +1538,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1671,6 +1671,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1995,19 +2003,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2021,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2035,7 +2044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2049,7 +2058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2063,7 +2072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2077,7 +2086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2091,7 +2100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2105,7 +2114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2119,7 +2128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2133,7 +2142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2147,7 +2156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2161,7 +2170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2175,7 +2184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2189,7 +2198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2203,7 +2212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2217,7 +2226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2231,7 +2240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2245,7 +2254,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2259,7 +2268,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2273,7 +2282,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2287,7 +2296,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -2301,7 +2310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2315,7 +2324,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2329,7 +2338,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2343,7 +2352,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -2357,7 +2366,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -2371,7 +2380,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2385,7 +2394,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2399,7 +2408,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -2413,7 +2422,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2427,7 +2436,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -2441,7 +2450,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -2455,7 +2464,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -2469,7 +2478,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -2483,7 +2492,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -2497,7 +2506,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2511,7 +2520,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -2525,7 +2534,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -2539,7 +2548,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -2553,7 +2562,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -2567,7 +2576,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -2581,7 +2590,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -2595,7 +2604,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -2609,7 +2618,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -2623,7 +2632,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -2637,7 +2646,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -2651,7 +2660,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -2665,7 +2674,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -2679,7 +2688,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -2693,7 +2702,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -2707,7 +2716,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -2721,7 +2730,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -2735,7 +2744,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -2749,7 +2758,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -2763,7 +2772,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -2777,7 +2786,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2791,7 +2800,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -2805,7 +2814,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -2819,7 +2828,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -2833,7 +2842,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -2847,7 +2856,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -2861,7 +2870,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2875,7 +2884,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -2889,7 +2898,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -2903,7 +2912,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -2917,7 +2926,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -2931,7 +2940,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -2945,7 +2954,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -2959,7 +2968,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -2973,7 +2982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -2987,7 +2996,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>53</v>
       </c>
@@ -3001,7 +3010,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -3015,7 +3024,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -3029,7 +3038,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -3043,7 +3052,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>23</v>
       </c>
@@ -3057,7 +3066,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -3071,7 +3080,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>110</v>
       </c>
@@ -3085,7 +3094,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -3099,7 +3108,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -3113,7 +3122,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>23</v>
       </c>
@@ -3127,7 +3136,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -3141,7 +3150,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>58</v>
       </c>
@@ -3155,7 +3164,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>23</v>
       </c>
@@ -3169,7 +3178,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>45</v>
       </c>
@@ -3183,7 +3192,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>58</v>
       </c>
@@ -3197,7 +3206,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -3211,7 +3220,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -3225,7 +3234,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -3239,7 +3248,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -3253,7 +3262,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>124</v>
       </c>
@@ -3267,7 +3276,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>126</v>
       </c>
@@ -3281,7 +3290,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -3295,7 +3304,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>129</v>
       </c>
@@ -3309,7 +3318,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -3323,7 +3332,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>132</v>
       </c>
@@ -3337,7 +3346,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>45</v>
       </c>
@@ -3351,7 +3360,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -3365,7 +3374,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -3379,7 +3388,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -3393,7 +3402,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -3407,7 +3416,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -3421,7 +3430,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>110</v>
       </c>
@@ -3435,7 +3444,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -3449,7 +3458,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -3463,7 +3472,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>58</v>
       </c>
@@ -3477,7 +3486,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>34</v>
       </c>
@@ -3491,7 +3500,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -3505,7 +3514,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -3519,7 +3528,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>23</v>
       </c>
@@ -3533,7 +3542,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>34</v>
       </c>
@@ -3547,7 +3556,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>27</v>
       </c>
@@ -3561,7 +3570,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>27</v>
       </c>
@@ -3575,7 +3584,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>58</v>
       </c>
@@ -3589,7 +3598,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -3603,7 +3612,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>132</v>
       </c>
@@ -3617,7 +3626,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>70</v>
       </c>
@@ -3631,7 +3640,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>45</v>
       </c>
@@ -3645,7 +3654,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -3659,7 +3668,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>58</v>
       </c>
@@ -3673,7 +3682,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>76</v>
       </c>
@@ -3687,7 +3696,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -3701,7 +3710,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>169</v>
       </c>
@@ -3715,7 +3724,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -3729,7 +3738,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>53</v>
       </c>
@@ -3743,7 +3752,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>169</v>
       </c>
@@ -3757,7 +3766,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -3771,7 +3780,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>13</v>
       </c>
@@ -3785,7 +3794,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>21</v>
       </c>
@@ -3799,7 +3808,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>13</v>
       </c>
@@ -3813,7 +3822,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>34</v>
       </c>
@@ -3827,7 +3836,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -3841,7 +3850,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>21</v>
       </c>
@@ -3855,7 +3864,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>19</v>
       </c>
@@ -3869,7 +3878,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>182</v>
       </c>
@@ -3883,7 +3892,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>58</v>
       </c>
@@ -3897,7 +3906,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -3911,7 +3920,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>30</v>
       </c>
@@ -3925,7 +3934,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -3939,7 +3948,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>30</v>
       </c>
@@ -3953,7 +3962,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>81</v>
       </c>
@@ -3967,7 +3976,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>189</v>
       </c>
@@ -3981,7 +3990,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>30</v>
       </c>
@@ -3995,7 +4004,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4009,7 +4018,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -4023,7 +4032,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -4037,7 +4046,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>13</v>
       </c>
@@ -4051,7 +4060,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -4065,7 +4074,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -4079,7 +4088,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -4093,7 +4102,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -4119,19 +4128,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="3" max="3" width="74.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -4145,7 +4151,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4159,7 +4165,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -4173,7 +4179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4187,7 +4193,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -4201,7 +4207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -4215,7 +4221,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4229,7 +4235,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -4255,21 +4261,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K159"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.1640625" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1"/>
     <col min="11" max="11" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>201</v>
       </c>
@@ -4304,7 +4313,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4339,7 +4348,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4374,7 +4383,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4409,7 +4418,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4444,7 +4453,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -4479,7 +4488,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4514,7 +4523,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -4549,7 +4558,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -4584,7 +4593,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -4619,7 +4628,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -4654,7 +4663,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -4689,7 +4698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -4724,7 +4733,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -4759,7 +4768,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -4794,7 +4803,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -4829,7 +4838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -4864,7 +4873,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -4899,7 +4908,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -4934,7 +4943,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -4969,7 +4978,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -5004,7 +5013,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -5039,7 +5048,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -5074,7 +5083,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -5109,7 +5118,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -5144,7 +5153,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -5179,7 +5188,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -5214,7 +5223,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -5249,7 +5258,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -5284,7 +5293,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
@@ -5319,7 +5328,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -5354,7 +5363,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -5389,7 +5398,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
@@ -5424,7 +5433,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -5459,7 +5468,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -5494,7 +5503,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
@@ -5529,7 +5538,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
@@ -5564,7 +5573,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
@@ -5599,7 +5608,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -5634,7 +5643,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>58</v>
       </c>
@@ -5669,7 +5678,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -5704,7 +5713,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>61</v>
       </c>
@@ -5739,7 +5748,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
@@ -5774,7 +5783,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -5809,7 +5818,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
@@ -5844,62 +5853,62 @@
         <v>309</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>320</v>
       </c>
       <c r="E46" s="1">
-        <v>2146</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1">
-        <v>2850</v>
+        <v>327</v>
       </c>
       <c r="G46" s="1">
-        <v>705</v>
+        <v>327</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>308</v>
+        <v>216</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E47" s="1">
-        <v>1</v>
+        <v>8636741</v>
       </c>
       <c r="F47" s="1">
-        <v>327</v>
+        <v>8637088</v>
       </c>
       <c r="G47" s="1">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>215</v>
@@ -5911,30 +5920,30 @@
         <v>217</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E48" s="1">
-        <v>8636741</v>
+        <v>190201</v>
       </c>
       <c r="F48" s="1">
-        <v>8637088</v>
+        <v>190875</v>
       </c>
       <c r="G48" s="1">
-        <v>348</v>
+        <v>675</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>215</v>
@@ -5946,30 +5955,30 @@
         <v>217</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="E49" s="1">
-        <v>190201</v>
+        <v>96836</v>
       </c>
       <c r="F49" s="1">
-        <v>190875</v>
+        <v>97758</v>
       </c>
       <c r="G49" s="1">
-        <v>675</v>
+        <v>923</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>215</v>
@@ -5981,30 +5990,30 @@
         <v>217</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E50" s="1">
-        <v>96836</v>
+        <v>906267</v>
       </c>
       <c r="F50" s="1">
-        <v>97758</v>
+        <v>908274</v>
       </c>
       <c r="G50" s="1">
-        <v>923</v>
+        <v>2008</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>215</v>
@@ -6016,30 +6025,30 @@
         <v>217</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E51" s="1">
-        <v>906267</v>
+        <v>30924930</v>
       </c>
       <c r="F51" s="1">
-        <v>908274</v>
+        <v>30925226</v>
       </c>
       <c r="G51" s="1">
-        <v>2008</v>
+        <v>297</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>215</v>
@@ -6051,30 +6060,30 @@
         <v>217</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E52" s="1">
-        <v>30924930</v>
+        <v>8786938</v>
       </c>
       <c r="F52" s="1">
-        <v>30925226</v>
+        <v>8787537</v>
       </c>
       <c r="G52" s="1">
-        <v>297</v>
+        <v>600</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>215</v>
@@ -6083,33 +6092,33 @@
         <v>216</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E53" s="1">
-        <v>8786938</v>
+        <v>32968340</v>
       </c>
       <c r="F53" s="1">
-        <v>8787537</v>
+        <v>32969256</v>
       </c>
       <c r="G53" s="1">
-        <v>600</v>
+        <v>917</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>215</v>
@@ -6121,100 +6130,100 @@
         <v>223</v>
       </c>
       <c r="K53" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="E54" s="1">
-        <v>32968340</v>
+        <v>3801</v>
       </c>
       <c r="F54" s="1">
-        <v>32969256</v>
+        <v>7204</v>
       </c>
       <c r="G54" s="1">
-        <v>917</v>
+        <v>3404</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>257</v>
+        <v>324</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E55" s="1">
-        <v>3801</v>
+        <v>73900</v>
       </c>
       <c r="F55" s="1">
-        <v>7204</v>
+        <v>74436</v>
       </c>
       <c r="G55" s="1">
-        <v>3404</v>
+        <v>537</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E56" s="1">
-        <v>73900</v>
+        <v>68765586</v>
       </c>
       <c r="F56" s="1">
-        <v>74436</v>
+        <v>68765870</v>
       </c>
       <c r="G56" s="1">
-        <v>537</v>
+        <v>285</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>215</v>
@@ -6226,30 +6235,30 @@
         <v>223</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="E57" s="1">
-        <v>68765586</v>
+        <v>32743</v>
       </c>
       <c r="F57" s="1">
-        <v>68765870</v>
+        <v>32952</v>
       </c>
       <c r="G57" s="1">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>215</v>
@@ -6261,65 +6270,65 @@
         <v>223</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>257</v>
+        <v>45</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E58" s="1">
+        <v>8889128</v>
+      </c>
+      <c r="F58" s="1">
+        <v>8889783</v>
+      </c>
+      <c r="G58" s="1">
+        <v>656</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K58" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E58" s="1">
-        <v>32743</v>
-      </c>
-      <c r="F58" s="1">
-        <v>32952</v>
-      </c>
-      <c r="G58" s="1">
-        <v>210</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59" s="1">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>290</v>
+        <v>347</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E59" s="1">
-        <v>8889128</v>
+        <v>8164</v>
       </c>
       <c r="F59" s="1">
-        <v>8889783</v>
+        <v>9018</v>
       </c>
       <c r="G59" s="1">
-        <v>656</v>
+        <v>855</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>233</v>
@@ -6331,30 +6340,30 @@
         <v>217</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>348</v>
+        <v>230</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="E60" s="1">
-        <v>8164</v>
+        <v>54444145</v>
       </c>
       <c r="F60" s="1">
-        <v>9018</v>
+        <v>54444668</v>
       </c>
       <c r="G60" s="1">
-        <v>855</v>
+        <v>524</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>233</v>
@@ -6366,30 +6375,30 @@
         <v>217</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E61" s="1">
-        <v>54444145</v>
+        <v>3581621</v>
       </c>
       <c r="F61" s="1">
-        <v>54444668</v>
+        <v>3582877</v>
       </c>
       <c r="G61" s="1">
-        <v>524</v>
+        <v>1257</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>233</v>
@@ -6401,30 +6410,30 @@
         <v>217</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E62" s="1">
-        <v>3581621</v>
+        <v>15666</v>
       </c>
       <c r="F62" s="1">
-        <v>3582877</v>
+        <v>15896</v>
       </c>
       <c r="G62" s="1">
-        <v>1257</v>
+        <v>231</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>233</v>
@@ -6436,10 +6445,10 @@
         <v>217</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>23</v>
       </c>
@@ -6450,16 +6459,16 @@
         <v>258</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E63" s="1">
-        <v>15666</v>
+        <v>8124</v>
       </c>
       <c r="F63" s="1">
-        <v>15896</v>
+        <v>8934</v>
       </c>
       <c r="G63" s="1">
-        <v>231</v>
+        <v>811</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>233</v>
@@ -6471,30 +6480,30 @@
         <v>217</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E64" s="1">
-        <v>8124</v>
+        <v>2637669</v>
       </c>
       <c r="F64" s="1">
-        <v>8934</v>
+        <v>2638623</v>
       </c>
       <c r="G64" s="1">
-        <v>811</v>
+        <v>955</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>233</v>
@@ -6503,68 +6512,68 @@
         <v>239</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E65" s="1">
-        <v>2637669</v>
+        <v>1385611</v>
       </c>
       <c r="F65" s="1">
-        <v>2638623</v>
+        <v>1386117</v>
       </c>
       <c r="G65" s="1">
-        <v>955</v>
+        <v>507</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>233</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>357</v>
       </c>
       <c r="E66" s="1">
-        <v>1385611</v>
+        <v>1918853</v>
       </c>
       <c r="F66" s="1">
-        <v>1386117</v>
+        <v>1919254</v>
       </c>
       <c r="G66" s="1">
-        <v>507</v>
+        <v>402</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>233</v>
@@ -6576,30 +6585,30 @@
         <v>217</v>
       </c>
       <c r="K66" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="E67" s="1">
-        <v>1918853</v>
+        <v>260875</v>
       </c>
       <c r="F67" s="1">
-        <v>1919254</v>
+        <v>261857</v>
       </c>
       <c r="G67" s="1">
-        <v>402</v>
+        <v>983</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>233</v>
@@ -6611,30 +6620,30 @@
         <v>217</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>336</v>
+        <v>262</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E68" s="1">
-        <v>260875</v>
+        <v>689346</v>
       </c>
       <c r="F68" s="1">
-        <v>261857</v>
+        <v>690600</v>
       </c>
       <c r="G68" s="1">
-        <v>983</v>
+        <v>1255</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>233</v>
@@ -6646,30 +6655,30 @@
         <v>217</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E69" s="1">
-        <v>689346</v>
+        <v>5672</v>
       </c>
       <c r="F69" s="1">
-        <v>690600</v>
+        <v>6457</v>
       </c>
       <c r="G69" s="1">
-        <v>1255</v>
+        <v>786</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>233</v>
@@ -6681,30 +6690,30 @@
         <v>217</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E70" s="1">
-        <v>5672</v>
+        <v>41784</v>
       </c>
       <c r="F70" s="1">
-        <v>6457</v>
+        <v>42080</v>
       </c>
       <c r="G70" s="1">
-        <v>786</v>
+        <v>297</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>233</v>
@@ -6716,30 +6725,30 @@
         <v>217</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E71" s="1">
-        <v>41784</v>
+        <v>49065</v>
       </c>
       <c r="F71" s="1">
-        <v>42080</v>
+        <v>49728</v>
       </c>
       <c r="G71" s="1">
-        <v>297</v>
+        <v>664</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>233</v>
@@ -6751,30 +6760,30 @@
         <v>217</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E72" s="1">
-        <v>49065</v>
+        <v>1846740</v>
       </c>
       <c r="F72" s="1">
-        <v>49728</v>
+        <v>1847845</v>
       </c>
       <c r="G72" s="1">
-        <v>664</v>
+        <v>1106</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>233</v>
@@ -6786,30 +6795,30 @@
         <v>217</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E73" s="1">
-        <v>1846740</v>
+        <v>26005</v>
       </c>
       <c r="F73" s="1">
-        <v>1847845</v>
+        <v>26382</v>
       </c>
       <c r="G73" s="1">
-        <v>1106</v>
+        <v>378</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>233</v>
@@ -6821,30 +6830,30 @@
         <v>217</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E74" s="1">
-        <v>26005</v>
+        <v>1453656</v>
       </c>
       <c r="F74" s="1">
-        <v>26382</v>
+        <v>1454915</v>
       </c>
       <c r="G74" s="1">
-        <v>378</v>
+        <v>1260</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>233</v>
@@ -6856,30 +6865,30 @@
         <v>217</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>236</v>
+        <v>299</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>237</v>
+        <v>366</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>367</v>
       </c>
       <c r="E75" s="1">
-        <v>1453656</v>
+        <v>2645882</v>
       </c>
       <c r="F75" s="1">
-        <v>1454915</v>
+        <v>2646670</v>
       </c>
       <c r="G75" s="1">
-        <v>1260</v>
+        <v>789</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>233</v>
@@ -6891,15 +6900,15 @@
         <v>217</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>368</v>
@@ -6908,83 +6917,83 @@
         <v>369</v>
       </c>
       <c r="E76" s="1">
-        <v>2645882</v>
+        <v>22393838</v>
       </c>
       <c r="F76" s="1">
-        <v>2646670</v>
+        <v>22396340</v>
       </c>
       <c r="G76" s="1">
-        <v>789</v>
+        <v>2503</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>233</v>
+        <v>370</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>234</v>
+        <v>371</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>370</v>
+        <v>245</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E77" s="1">
-        <v>22393838</v>
+        <v>1245741</v>
       </c>
       <c r="F77" s="1">
-        <v>22396340</v>
+        <v>1246425</v>
       </c>
       <c r="G77" s="1">
-        <v>2503</v>
+        <v>685</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>372</v>
+        <v>233</v>
       </c>
       <c r="I77" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="J77" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>374</v>
       </c>
       <c r="E78" s="1">
-        <v>1245741</v>
+        <v>10976892</v>
       </c>
       <c r="F78" s="1">
-        <v>1246425</v>
+        <v>10977996</v>
       </c>
       <c r="G78" s="1">
-        <v>685</v>
+        <v>1105</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>233</v>
@@ -6996,30 +7005,30 @@
         <v>223</v>
       </c>
       <c r="K78" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="E79" s="1">
-        <v>10976892</v>
+        <v>655538</v>
       </c>
       <c r="F79" s="1">
-        <v>10977996</v>
+        <v>656777</v>
       </c>
       <c r="G79" s="1">
-        <v>1105</v>
+        <v>1240</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>233</v>
@@ -7031,30 +7040,30 @@
         <v>223</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E80" s="1">
-        <v>655538</v>
+        <v>20887</v>
       </c>
       <c r="F80" s="1">
-        <v>656777</v>
+        <v>21294</v>
       </c>
       <c r="G80" s="1">
-        <v>1240</v>
+        <v>408</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>233</v>
@@ -7066,30 +7075,30 @@
         <v>223</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E81" s="1">
-        <v>20887</v>
+        <v>13162</v>
       </c>
       <c r="F81" s="1">
-        <v>21294</v>
+        <v>13461</v>
       </c>
       <c r="G81" s="1">
-        <v>408</v>
+        <v>300</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>233</v>
@@ -7101,30 +7110,30 @@
         <v>223</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>264</v>
+        <v>378</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>265</v>
+        <v>379</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E82" s="1">
-        <v>13162</v>
+        <v>14192337</v>
       </c>
       <c r="F82" s="1">
-        <v>13461</v>
+        <v>14192723</v>
       </c>
       <c r="G82" s="1">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>233</v>
@@ -7136,15 +7145,15 @@
         <v>223</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>380</v>
+        <v>299</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>381</v>
@@ -7153,13 +7162,13 @@
         <v>382</v>
       </c>
       <c r="E83" s="1">
-        <v>14192337</v>
+        <v>572408</v>
       </c>
       <c r="F83" s="1">
-        <v>14192723</v>
+        <v>573355</v>
       </c>
       <c r="G83" s="1">
-        <v>387</v>
+        <v>948</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>233</v>
@@ -7171,30 +7180,30 @@
         <v>223</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="E84" s="1">
-        <v>572408</v>
+        <v>8521</v>
       </c>
       <c r="F84" s="1">
-        <v>573355</v>
+        <v>9497</v>
       </c>
       <c r="G84" s="1">
-        <v>948</v>
+        <v>977</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>233</v>
@@ -7206,30 +7215,30 @@
         <v>223</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E85" s="1">
-        <v>8521</v>
+        <v>6</v>
       </c>
       <c r="F85" s="1">
-        <v>9497</v>
+        <v>907</v>
       </c>
       <c r="G85" s="1">
-        <v>977</v>
+        <v>902</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>233</v>
@@ -7241,30 +7250,30 @@
         <v>223</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>258</v>
+        <v>334</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E86" s="1">
-        <v>6</v>
+        <v>9623578</v>
       </c>
       <c r="F86" s="1">
-        <v>907</v>
+        <v>9624518</v>
       </c>
       <c r="G86" s="1">
-        <v>902</v>
+        <v>941</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>233</v>
@@ -7276,30 +7285,30 @@
         <v>223</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E87" s="1">
-        <v>9623578</v>
+        <v>51650</v>
       </c>
       <c r="F87" s="1">
-        <v>9624518</v>
+        <v>52246</v>
       </c>
       <c r="G87" s="1">
-        <v>941</v>
+        <v>597</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>233</v>
@@ -7311,30 +7320,30 @@
         <v>223</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E88" s="1">
-        <v>51650</v>
+        <v>10911</v>
       </c>
       <c r="F88" s="1">
-        <v>52246</v>
+        <v>11556</v>
       </c>
       <c r="G88" s="1">
-        <v>597</v>
+        <v>646</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>233</v>
@@ -7346,30 +7355,30 @@
         <v>223</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>257</v>
+        <v>45</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E89" s="1">
-        <v>10911</v>
+        <v>4585405</v>
       </c>
       <c r="F89" s="1">
-        <v>11556</v>
+        <v>4585941</v>
       </c>
       <c r="G89" s="1">
-        <v>646</v>
+        <v>537</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>233</v>
@@ -7381,85 +7390,85 @@
         <v>223</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B90" s="1">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E90" s="1">
-        <v>4585405</v>
+        <v>14962</v>
       </c>
       <c r="F90" s="1">
-        <v>4585941</v>
+        <v>15621</v>
       </c>
       <c r="G90" s="1">
-        <v>537</v>
+        <v>660</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>233</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>234</v>
+        <v>390</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>305</v>
+        <v>392</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E91" s="1">
-        <v>14962</v>
+        <v>16800563</v>
       </c>
       <c r="F91" s="1">
-        <v>15621</v>
+        <v>16801516</v>
       </c>
       <c r="G91" s="1">
-        <v>660</v>
+        <v>954</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>233</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>394</v>
@@ -7468,363 +7477,363 @@
         <v>395</v>
       </c>
       <c r="E92" s="1">
-        <v>16800563</v>
+        <v>48412294</v>
       </c>
       <c r="F92" s="1">
-        <v>16801516</v>
+        <v>48413251</v>
       </c>
       <c r="G92" s="1">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>233</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>271</v>
+        <v>45</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="E93" s="1">
-        <v>48412294</v>
+        <v>4192105</v>
       </c>
       <c r="F93" s="1">
-        <v>48413251</v>
+        <v>4192641</v>
       </c>
       <c r="G93" s="1">
-        <v>958</v>
+        <v>537</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>233</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B94" s="1">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E94" s="1">
-        <v>4192105</v>
+        <v>360</v>
       </c>
       <c r="F94" s="1">
-        <v>4192641</v>
+        <v>1038</v>
       </c>
       <c r="G94" s="1">
-        <v>537</v>
+        <v>679</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>233</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>257</v>
+        <v>398</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>258</v>
+        <v>399</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E95" s="1">
-        <v>360</v>
+        <v>10830761</v>
       </c>
       <c r="F95" s="1">
-        <v>1038</v>
+        <v>10831081</v>
       </c>
       <c r="G95" s="1">
-        <v>679</v>
+        <v>321</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>233</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E96" s="1">
-        <v>10830761</v>
+        <v>73977360</v>
       </c>
       <c r="F96" s="1">
-        <v>10831081</v>
+        <v>73977656</v>
       </c>
       <c r="G96" s="1">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>233</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>403</v>
+        <v>247</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>404</v>
+        <v>248</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>405</v>
       </c>
       <c r="E97" s="1">
-        <v>73977360</v>
+        <v>2126</v>
       </c>
       <c r="F97" s="1">
-        <v>73977656</v>
+        <v>3158</v>
       </c>
       <c r="G97" s="1">
-        <v>297</v>
+        <v>1033</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>233</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K97" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="C98" s="1" t="s">
-        <v>248</v>
+        <v>407</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E98" s="1">
-        <v>2126</v>
+        <v>73746386</v>
       </c>
       <c r="F98" s="1">
-        <v>3158</v>
+        <v>73746676</v>
       </c>
       <c r="G98" s="1">
-        <v>1033</v>
+        <v>291</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>233</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>408</v>
+        <v>236</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="E99" s="1">
-        <v>73746386</v>
+        <v>1028286</v>
       </c>
       <c r="F99" s="1">
-        <v>73746676</v>
+        <v>1029623</v>
       </c>
       <c r="G99" s="1">
-        <v>291</v>
+        <v>1338</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>233</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>236</v>
+        <v>340</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>237</v>
+        <v>410</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E100" s="1">
-        <v>1028286</v>
+        <v>74147062</v>
       </c>
       <c r="F100" s="1">
-        <v>1029623</v>
+        <v>74147358</v>
       </c>
       <c r="G100" s="1">
-        <v>1338</v>
+        <v>297</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>233</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>342</v>
+        <v>45</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>412</v>
+        <v>290</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E101" s="1">
-        <v>74147062</v>
+        <v>7971797</v>
       </c>
       <c r="F101" s="1">
-        <v>74147358</v>
+        <v>7972318</v>
       </c>
       <c r="G101" s="1">
-        <v>297</v>
+        <v>522</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>233</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>392</v>
+        <v>275</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B102" s="1">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E102" s="1">
-        <v>7971797</v>
+        <v>269062</v>
       </c>
       <c r="F102" s="1">
-        <v>7972318</v>
+        <v>269964</v>
       </c>
       <c r="G102" s="1">
-        <v>522</v>
+        <v>903</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>233</v>
@@ -7836,30 +7845,30 @@
         <v>217</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E103" s="1">
-        <v>269062</v>
+        <v>2285</v>
       </c>
       <c r="F103" s="1">
-        <v>269964</v>
+        <v>3467</v>
       </c>
       <c r="G103" s="1">
-        <v>903</v>
+        <v>1183</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>233</v>
@@ -7871,10 +7880,10 @@
         <v>217</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
@@ -7885,16 +7894,16 @@
         <v>242</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E104" s="1">
-        <v>2285</v>
+        <v>587367</v>
       </c>
       <c r="F104" s="1">
-        <v>3467</v>
+        <v>592275</v>
       </c>
       <c r="G104" s="1">
-        <v>1183</v>
+        <v>4909</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>233</v>
@@ -7906,30 +7915,30 @@
         <v>217</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E105" s="1">
-        <v>587367</v>
+        <v>611417</v>
       </c>
       <c r="F105" s="1">
-        <v>592275</v>
+        <v>616512</v>
       </c>
       <c r="G105" s="1">
-        <v>4909</v>
+        <v>5096</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>233</v>
@@ -7944,27 +7953,27 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>245</v>
+        <v>417</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>418</v>
       </c>
       <c r="E106" s="1">
-        <v>611417</v>
+        <v>794288</v>
       </c>
       <c r="F106" s="1">
-        <v>616512</v>
+        <v>794806</v>
       </c>
       <c r="G106" s="1">
-        <v>5096</v>
+        <v>519</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>233</v>
@@ -7973,33 +7982,33 @@
         <v>275</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>419</v>
+        <v>248</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>420</v>
       </c>
       <c r="E107" s="1">
-        <v>794288</v>
+        <v>1458</v>
       </c>
       <c r="F107" s="1">
-        <v>794806</v>
+        <v>2352</v>
       </c>
       <c r="G107" s="1">
-        <v>519</v>
+        <v>895</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>233</v>
@@ -8011,30 +8020,30 @@
         <v>223</v>
       </c>
       <c r="K107" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="E108" s="1">
-        <v>1458</v>
+        <v>25343</v>
       </c>
       <c r="F108" s="1">
-        <v>2352</v>
+        <v>25657</v>
       </c>
       <c r="G108" s="1">
-        <v>895</v>
+        <v>315</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>233</v>
@@ -8046,30 +8055,30 @@
         <v>223</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>261</v>
+        <v>378</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>262</v>
+        <v>422</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>423</v>
       </c>
       <c r="E109" s="1">
-        <v>25343</v>
+        <v>18507010</v>
       </c>
       <c r="F109" s="1">
-        <v>25657</v>
+        <v>18507102</v>
       </c>
       <c r="G109" s="1">
-        <v>315</v>
+        <v>93</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>233</v>
@@ -8081,30 +8090,30 @@
         <v>223</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>380</v>
+        <v>264</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="E110" s="1">
-        <v>18507010</v>
+        <v>1034</v>
       </c>
       <c r="F110" s="1">
-        <v>18507102</v>
+        <v>1591</v>
       </c>
       <c r="G110" s="1">
-        <v>93</v>
+        <v>558</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>233</v>
@@ -8116,30 +8125,30 @@
         <v>223</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E111" s="1">
-        <v>1034</v>
+        <v>29</v>
       </c>
       <c r="F111" s="1">
-        <v>1591</v>
+        <v>3223</v>
       </c>
       <c r="G111" s="1">
-        <v>558</v>
+        <v>3195</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>233</v>
@@ -8151,65 +8160,65 @@
         <v>223</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>247</v>
+        <v>426</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>248</v>
+        <v>427</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E112" s="1">
-        <v>29</v>
+        <v>12672</v>
       </c>
       <c r="F112" s="1">
-        <v>3223</v>
+        <v>12830</v>
       </c>
       <c r="G112" s="1">
-        <v>3195</v>
+        <v>159</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>233</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E113" s="1">
-        <v>12672</v>
+        <v>388</v>
       </c>
       <c r="F113" s="1">
-        <v>12830</v>
+        <v>609</v>
       </c>
       <c r="G113" s="1">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>233</v>
@@ -8218,30 +8227,30 @@
         <v>239</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>434</v>
       </c>
       <c r="E114" s="1">
-        <v>388</v>
+        <v>489</v>
       </c>
       <c r="F114" s="1">
-        <v>609</v>
+        <v>710</v>
       </c>
       <c r="G114" s="1">
         <v>222</v>
@@ -8256,30 +8265,30 @@
         <v>223</v>
       </c>
       <c r="K114" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="E115" s="1">
-        <v>489</v>
+        <v>44320</v>
       </c>
       <c r="F115" s="1">
-        <v>710</v>
+        <v>44478</v>
       </c>
       <c r="G115" s="1">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>233</v>
@@ -8291,71 +8300,71 @@
         <v>223</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>432</v>
+        <v>264</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>433</v>
+        <v>265</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E116" s="1">
-        <v>44320</v>
+        <v>56833</v>
       </c>
       <c r="F116" s="1">
-        <v>44478</v>
+        <v>57582</v>
       </c>
       <c r="G116" s="1">
-        <v>159</v>
+        <v>750</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>233</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>438</v>
       </c>
       <c r="E117" s="1">
-        <v>56833</v>
+        <v>49777</v>
       </c>
       <c r="F117" s="1">
-        <v>57582</v>
+        <v>50490</v>
       </c>
       <c r="G117" s="1">
-        <v>750</v>
+        <v>714</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>217</v>
@@ -8364,27 +8373,27 @@
         <v>439</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>305</v>
+        <v>440</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E118" s="1">
-        <v>49777</v>
+        <v>42768457</v>
       </c>
       <c r="F118" s="1">
-        <v>50490</v>
+        <v>42768969</v>
       </c>
       <c r="G118" s="1">
-        <v>714</v>
+        <v>513</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>307</v>
@@ -8396,30 +8405,30 @@
         <v>217</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="E119" s="1">
-        <v>42768457</v>
+        <v>805240</v>
       </c>
       <c r="F119" s="1">
-        <v>42768969</v>
+        <v>805797</v>
       </c>
       <c r="G119" s="1">
-        <v>513</v>
+        <v>558</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>307</v>
@@ -8428,68 +8437,68 @@
         <v>308</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>444</v>
       </c>
       <c r="E120" s="1">
-        <v>805240</v>
+        <v>7968384</v>
       </c>
       <c r="F120" s="1">
-        <v>805797</v>
+        <v>7968968</v>
       </c>
       <c r="G120" s="1">
-        <v>558</v>
+        <v>585</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>308</v>
+        <v>216</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K120" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>446</v>
       </c>
       <c r="E121" s="1">
-        <v>7968384</v>
+        <v>34187</v>
       </c>
       <c r="F121" s="1">
-        <v>7968968</v>
+        <v>34354</v>
       </c>
       <c r="G121" s="1">
-        <v>585</v>
+        <v>168</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>215</v>
@@ -8501,36 +8510,36 @@
         <v>217</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E122" s="1">
+        <v>58096795</v>
+      </c>
+      <c r="F122" s="1">
+        <v>58097052</v>
+      </c>
+      <c r="G122" s="1">
         <v>258</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E122" s="1">
-        <v>34187</v>
-      </c>
-      <c r="F122" s="1">
-        <v>34354</v>
-      </c>
-      <c r="G122" s="1">
-        <v>168</v>
-      </c>
       <c r="H122" s="1" t="s">
-        <v>215</v>
+        <v>370</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>216</v>
+        <v>371</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>217</v>
@@ -8539,42 +8548,42 @@
         <v>447</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>289</v>
+        <v>448</v>
       </c>
       <c r="E123" s="1">
-        <v>58096795</v>
+        <v>644</v>
       </c>
       <c r="F123" s="1">
-        <v>58097052</v>
+        <v>1165</v>
       </c>
       <c r="G123" s="1">
-        <v>258</v>
+        <v>522</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>27</v>
       </c>
@@ -8585,666 +8594,666 @@
         <v>262</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E124" s="1">
-        <v>644</v>
+        <v>414275</v>
       </c>
       <c r="F124" s="1">
-        <v>1165</v>
+        <v>414550</v>
       </c>
       <c r="G124" s="1">
-        <v>522</v>
+        <v>276</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E125" s="1">
-        <v>414275</v>
+        <v>140507</v>
       </c>
       <c r="F125" s="1">
-        <v>414550</v>
+        <v>141160</v>
       </c>
       <c r="G125" s="1">
-        <v>276</v>
+        <v>654</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>305</v>
+        <v>451</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>452</v>
       </c>
       <c r="E126" s="1">
-        <v>140507</v>
+        <v>26305160</v>
       </c>
       <c r="F126" s="1">
-        <v>141160</v>
+        <v>26305618</v>
       </c>
       <c r="G126" s="1">
-        <v>654</v>
+        <v>459</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="E127" s="1">
-        <v>26305160</v>
+        <v>19052705</v>
       </c>
       <c r="F127" s="1">
-        <v>26305618</v>
+        <v>19053115</v>
       </c>
       <c r="G127" s="1">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>412</v>
+        <v>325</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E128" s="1">
-        <v>19052705</v>
+        <v>1569601</v>
       </c>
       <c r="F128" s="1">
-        <v>19053115</v>
+        <v>1570413</v>
       </c>
       <c r="G128" s="1">
-        <v>411</v>
+        <v>813</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>326</v>
+        <v>45</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E129" s="1">
-        <v>1569601</v>
+        <v>313542</v>
       </c>
       <c r="F129" s="1">
-        <v>1570413</v>
+        <v>313781</v>
       </c>
       <c r="G129" s="1">
-        <v>813</v>
+        <v>240</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B130" s="1">
-        <v>1</v>
+        <v>124</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>290</v>
+        <v>456</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>457</v>
       </c>
       <c r="E130" s="1">
-        <v>313542</v>
+        <v>23779547</v>
       </c>
       <c r="F130" s="1">
-        <v>313781</v>
+        <v>23779822</v>
       </c>
       <c r="G130" s="1">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>400</v>
+        <v>304</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="E131" s="1">
-        <v>23779547</v>
+        <v>329427</v>
       </c>
       <c r="F131" s="1">
-        <v>23779822</v>
+        <v>330008</v>
       </c>
       <c r="G131" s="1">
-        <v>276</v>
+        <v>582</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E132" s="1">
-        <v>329427</v>
+        <v>12238305</v>
       </c>
       <c r="F132" s="1">
-        <v>330008</v>
+        <v>12239117</v>
       </c>
       <c r="G132" s="1">
-        <v>582</v>
+        <v>813</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>335</v>
+        <v>244</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>336</v>
+        <v>245</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E133" s="1">
-        <v>12238305</v>
+        <v>122271</v>
       </c>
       <c r="F133" s="1">
-        <v>12239117</v>
+        <v>122582</v>
       </c>
       <c r="G133" s="1">
-        <v>813</v>
+        <v>312</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>244</v>
+        <v>461</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>245</v>
+        <v>462</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E134" s="1">
-        <v>122271</v>
+        <v>36369303</v>
       </c>
       <c r="F134" s="1">
-        <v>122582</v>
+        <v>36369443</v>
       </c>
       <c r="G134" s="1">
-        <v>312</v>
+        <v>141</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>463</v>
+        <v>406</v>
       </c>
       <c r="C135" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>465</v>
-      </c>
       <c r="E135" s="1">
-        <v>36369303</v>
+        <v>18883651</v>
       </c>
       <c r="F135" s="1">
-        <v>36369443</v>
+        <v>18884061</v>
       </c>
       <c r="G135" s="1">
-        <v>141</v>
+        <v>411</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>408</v>
+        <v>299</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>409</v>
+        <v>465</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>466</v>
       </c>
       <c r="E136" s="1">
-        <v>18883651</v>
+        <v>4685275</v>
       </c>
       <c r="F136" s="1">
-        <v>18884061</v>
+        <v>4686057</v>
       </c>
       <c r="G136" s="1">
-        <v>411</v>
+        <v>783</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>299</v>
+        <v>461</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>467</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>468</v>
+        <v>403</v>
       </c>
       <c r="E137" s="1">
-        <v>4685275</v>
+        <v>89434652</v>
       </c>
       <c r="F137" s="1">
-        <v>4686057</v>
+        <v>89435143</v>
       </c>
       <c r="G137" s="1">
-        <v>783</v>
+        <v>492</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>469</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="E138" s="1">
-        <v>89434652</v>
+        <v>22129194</v>
       </c>
       <c r="F138" s="1">
-        <v>89435143</v>
+        <v>22129415</v>
       </c>
       <c r="G138" s="1">
-        <v>492</v>
+        <v>222</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="E139" s="1">
-        <v>22129194</v>
+        <v>420063</v>
       </c>
       <c r="F139" s="1">
-        <v>22129415</v>
+        <v>420431</v>
       </c>
       <c r="G139" s="1">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1681851</v>
+      </c>
+      <c r="F140" s="1">
+        <v>1682063</v>
+      </c>
+      <c r="G140" s="1">
+        <v>213</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E140" s="1">
-        <v>420063</v>
-      </c>
-      <c r="F140" s="1">
-        <v>420431</v>
-      </c>
-      <c r="G140" s="1">
-        <v>369</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K140" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="A141" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>473</v>
       </c>
       <c r="E141" s="1">
-        <v>1681851</v>
+        <v>139370</v>
       </c>
       <c r="F141" s="1">
-        <v>1682063</v>
+        <v>139894</v>
       </c>
       <c r="G141" s="1">
-        <v>213</v>
+        <v>525</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K141" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>474</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>475</v>
       </c>
       <c r="E142" s="1">
-        <v>139370</v>
+        <v>37672558</v>
       </c>
       <c r="F142" s="1">
-        <v>139894</v>
+        <v>37673241</v>
       </c>
       <c r="G142" s="1">
-        <v>525</v>
+        <v>684</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>476</v>
@@ -9253,468 +9262,468 @@
         <v>477</v>
       </c>
       <c r="E143" s="1">
-        <v>37672558</v>
+        <v>779626</v>
       </c>
       <c r="F143" s="1">
-        <v>37673241</v>
+        <v>780024</v>
       </c>
       <c r="G143" s="1">
-        <v>684</v>
+        <v>399</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C144" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="E144" s="1">
-        <v>779626</v>
+        <v>1575407</v>
       </c>
       <c r="F144" s="1">
-        <v>780024</v>
+        <v>1576021</v>
       </c>
       <c r="G144" s="1">
-        <v>399</v>
+        <v>615</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>255</v>
+        <v>479</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>480</v>
       </c>
       <c r="E145" s="1">
-        <v>1575407</v>
+        <v>260388</v>
       </c>
       <c r="F145" s="1">
-        <v>1576021</v>
+        <v>261065</v>
       </c>
       <c r="G145" s="1">
-        <v>615</v>
+        <v>678</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>250</v>
+        <v>481</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E146" s="1">
-        <v>260388</v>
+        <v>244950</v>
       </c>
       <c r="F146" s="1">
-        <v>261065</v>
+        <v>245162</v>
       </c>
       <c r="G146" s="1">
-        <v>678</v>
+        <v>213</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>483</v>
+        <v>304</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>485</v>
-      </c>
       <c r="E147" s="1">
-        <v>244950</v>
+        <v>223190</v>
       </c>
       <c r="F147" s="1">
-        <v>245162</v>
+        <v>223534</v>
       </c>
       <c r="G147" s="1">
-        <v>213</v>
+        <v>345</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>305</v>
+        <v>242</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E148" s="1">
-        <v>223190</v>
+        <v>207661</v>
       </c>
       <c r="F148" s="1">
-        <v>223534</v>
+        <v>208185</v>
       </c>
       <c r="G148" s="1">
-        <v>345</v>
+        <v>525</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E149" s="1">
-        <v>207661</v>
+        <v>5792</v>
       </c>
       <c r="F149" s="1">
-        <v>208185</v>
+        <v>6373</v>
       </c>
       <c r="G149" s="1">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>265</v>
+        <v>487</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>488</v>
       </c>
       <c r="E150" s="1">
-        <v>5792</v>
+        <v>55328711</v>
       </c>
       <c r="F150" s="1">
-        <v>6373</v>
+        <v>55329325</v>
       </c>
       <c r="G150" s="1">
-        <v>582</v>
+        <v>615</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C151" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="E151" s="1">
-        <v>55328711</v>
+        <v>23362</v>
       </c>
       <c r="F151" s="1">
-        <v>55329325</v>
+        <v>23658</v>
       </c>
       <c r="G151" s="1">
-        <v>615</v>
+        <v>297</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E152" s="1">
-        <v>23362</v>
+        <v>8225159</v>
       </c>
       <c r="F152" s="1">
-        <v>23658</v>
+        <v>8225611</v>
       </c>
       <c r="G152" s="1">
-        <v>297</v>
+        <v>453</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>342</v>
+        <v>491</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>343</v>
+        <v>492</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E153" s="1">
-        <v>8225159</v>
+        <v>86724</v>
       </c>
       <c r="F153" s="1">
-        <v>8225611</v>
+        <v>87294</v>
       </c>
       <c r="G153" s="1">
-        <v>453</v>
+        <v>571</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>493</v>
+        <v>264</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>495</v>
-      </c>
       <c r="E154" s="1">
-        <v>86724</v>
+        <v>14065</v>
       </c>
       <c r="F154" s="1">
-        <v>87294</v>
+        <v>14250</v>
       </c>
       <c r="G154" s="1">
-        <v>571</v>
+        <v>186</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="D155" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E155" s="1">
+        <v>1644928</v>
+      </c>
+      <c r="F155" s="1">
+        <v>1645275</v>
+      </c>
+      <c r="G155" s="1">
+        <v>348</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K155" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E155" s="1">
-        <v>14065</v>
-      </c>
-      <c r="F155" s="1">
-        <v>14250</v>
-      </c>
-      <c r="G155" s="1">
-        <v>186</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J155" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K155" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>497</v>
       </c>
       <c r="E156" s="1">
-        <v>1644928</v>
+        <v>930289</v>
       </c>
       <c r="F156" s="1">
-        <v>1645275</v>
+        <v>930822</v>
       </c>
       <c r="G156" s="1">
-        <v>348</v>
+        <v>534</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>233</v>
@@ -9726,62 +9735,62 @@
         <v>217</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E157" s="1">
-        <v>930289</v>
+        <v>1055297</v>
       </c>
       <c r="F157" s="1">
-        <v>930822</v>
+        <v>1055656</v>
       </c>
       <c r="G157" s="1">
-        <v>534</v>
+        <v>360</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>233</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>217</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>500</v>
       </c>
       <c r="E158" s="1">
-        <v>1055297</v>
+        <v>1196150</v>
       </c>
       <c r="F158" s="1">
-        <v>1055656</v>
+        <v>1196509</v>
       </c>
       <c r="G158" s="1">
         <v>360</v>
@@ -9793,45 +9802,10 @@
         <v>275</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="E159" s="1">
-        <v>1196150</v>
-      </c>
-      <c r="F159" s="1">
-        <v>1196509</v>
-      </c>
-      <c r="G159" s="1">
-        <v>360</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K159" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
   </sheetData>
